--- a/mapping_schemes/west/SLE_RES.xlsx
+++ b/mapping_schemes/west/SLE_RES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npaul/GEM/WIP/africa/data/Africa_Map/West/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1381A04B-0ED7-2E4F-9F0E-DEB8E79254A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A341FB1-0878-B748-8C39-ACEBBE632777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13080" yWindow="460" windowWidth="13960" windowHeight="17260" activeTab="2" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
+    <workbookView xWindow="13080" yWindow="460" windowWidth="13960" windowHeight="17260" activeTab="1" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
   </bookViews>
   <sheets>
     <sheet name="Material_1" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="82">
   <si>
     <t>MATO</t>
   </si>
@@ -2690,10 +2690,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF06C8A-1AE4-2949-8A97-6266F0313480}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2994,32 +2994,32 @@
         <v>10</v>
       </c>
       <c r="D21" s="2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -3027,13 +3027,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -3041,13 +3041,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>67</v>
@@ -3068,9 +3068,18 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
@@ -3078,7 +3087,7 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="5"/>
       <c r="C29" s="3"/>
     </row>
@@ -3088,17 +3097,17 @@
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="5"/>
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="5"/>
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="5"/>
       <c r="C33" s="3"/>
     </row>
@@ -3211,13 +3220,12 @@
       <c r="A55" s="10"/>
       <c r="B55" s="5"/>
       <c r="C55" s="3"/>
-      <c r="G55" s="19"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
       <c r="B56" s="5"/>
       <c r="C56" s="3"/>
-      <c r="G56" s="10"/>
+      <c r="G56" s="19"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
@@ -3259,6 +3267,7 @@
       <c r="A63" s="10"/>
       <c r="B63" s="5"/>
       <c r="C63" s="3"/>
+      <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="10"/>
@@ -3306,9 +3315,9 @@
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
+      <c r="A73" s="10"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
+      <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
@@ -3323,7 +3332,7 @@
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
-      <c r="C76" s="3"/>
+      <c r="C76" s="5"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
@@ -3338,11 +3347,11 @@
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
+      <c r="C79" s="3"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
-      <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
@@ -3398,6 +3407,11 @@
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3409,7 +3423,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E33"/>
     </sheetView>
   </sheetViews>
